--- a/2023-2024/Data og lign/BNPLux.xlsx
+++ b/2023-2024/Data og lign/BNPLux.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGCJ\Desktop\Undervisning\Undervisningsnoter\2023-2024\Data og lign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{BAD8E21D-8884-42AA-B8B5-F7B12E0971E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ACD03E-E36E-4762-8B44-A748C235D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,133 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>13 942</t>
-  </si>
-  <si>
-    <t>14 963</t>
-  </si>
-  <si>
-    <t>16 009</t>
-  </si>
-  <si>
-    <t>17 599</t>
-  </si>
-  <si>
-    <t>18 632</t>
-  </si>
-  <si>
-    <t>20 808</t>
-  </si>
-  <si>
-    <t>22 021</t>
-  </si>
-  <si>
-    <t>24 516</t>
-  </si>
-  <si>
-    <t>27 699</t>
-  </si>
-  <si>
-    <t>29 924</t>
-  </si>
-  <si>
-    <t>33 159</t>
-  </si>
-  <si>
-    <t>34 065</t>
-  </si>
-  <si>
-    <t>35 826</t>
-  </si>
-  <si>
-    <t>37 444</t>
-  </si>
-  <si>
-    <t>38 237</t>
-  </si>
-  <si>
-    <t>39 685</t>
-  </si>
-  <si>
-    <t>42 437</t>
-  </si>
-  <si>
-    <t>44 216</t>
-  </si>
-  <si>
-    <t>49 745</t>
-  </si>
-  <si>
-    <t>55 039</t>
-  </si>
-  <si>
-    <t>56 099</t>
-  </si>
-  <si>
-    <t>58 513</t>
-  </si>
-  <si>
-    <t>60 116</t>
-  </si>
-  <si>
-    <t>64 636</t>
-  </si>
-  <si>
-    <t>68 708</t>
-  </si>
-  <si>
-    <t>78 830</t>
-  </si>
-  <si>
-    <t>85 004</t>
-  </si>
-  <si>
-    <t>90 864</t>
-  </si>
-  <si>
-    <t>86 797</t>
-  </si>
-  <si>
-    <t>90 242</t>
-  </si>
-  <si>
-    <t>94 279</t>
-  </si>
-  <si>
-    <t>96 536</t>
-  </si>
-  <si>
-    <t>100 561</t>
-  </si>
-  <si>
-    <t>104 918</t>
-  </si>
-  <si>
-    <t>107 898</t>
-  </si>
-  <si>
-    <t>112 955</t>
-  </si>
-  <si>
-    <t>114 863</t>
-  </si>
-  <si>
-    <t>116 335</t>
-  </si>
-  <si>
-    <t>121 111</t>
-  </si>
-  <si>
-    <t>121 985</t>
-  </si>
-  <si>
-    <t>137 738</t>
-  </si>
-  <si>
-    <t>145 972</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BNP per person i USD</t>
   </si>
@@ -173,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,19 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:42" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -600,8 +476,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>13942</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -609,8 +485,8 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>14963</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
@@ -618,8 +494,8 @@
         <f t="shared" ref="A4:A43" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4">
+        <v>16009</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.35">
@@ -627,8 +503,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5">
+        <v>17599</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.35">
@@ -636,8 +512,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>18632</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.35">
@@ -645,8 +521,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>20808</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
@@ -654,8 +530,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>22021</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
@@ -663,8 +539,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9">
+        <v>24516</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
@@ -672,8 +548,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10">
+        <v>27699</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
@@ -681,8 +557,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11">
+        <v>29924</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.35">
@@ -690,8 +566,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12">
+        <v>33159</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.35">
@@ -699,8 +575,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13">
+        <v>34065</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.35">
@@ -708,8 +584,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14">
+        <v>35826</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.35">
@@ -717,8 +593,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15">
+        <v>37444</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.35">
@@ -726,8 +602,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16">
+        <v>38237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -735,8 +611,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17">
+        <v>39685</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -744,8 +620,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
+      <c r="B18">
+        <v>42437</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -753,8 +629,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
+      <c r="B19">
+        <v>44216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -762,8 +638,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
+      <c r="B20">
+        <v>49745</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -771,8 +647,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
+      <c r="B21">
+        <v>55039</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -780,8 +656,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="B22">
+        <v>56099</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -789,8 +665,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
+      <c r="B23">
+        <v>58513</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -798,8 +674,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
+      <c r="B24">
+        <v>60116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -807,8 +683,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
+      <c r="B25">
+        <v>64636</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -816,8 +692,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="B26">
+        <v>68708</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -825,8 +701,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
+      <c r="B27">
+        <v>78830</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -834,8 +710,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
+      <c r="B28">
+        <v>85004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -843,8 +719,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
+      <c r="B29">
+        <v>90864</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -852,8 +728,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
+      <c r="B30">
+        <v>86797</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -861,8 +737,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
+      <c r="B31">
+        <v>90242</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -870,17 +746,17 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>30</v>
+      <c r="B32">
+        <v>94279</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
+      <c r="B33">
+        <v>96536</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -888,8 +764,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
+      <c r="B34">
+        <v>100561</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -897,8 +773,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>33</v>
+      <c r="B35">
+        <v>104918</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -906,8 +782,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>34</v>
+      <c r="B36">
+        <v>107898</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -915,8 +791,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
+      <c r="B37">
+        <v>112955</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -924,8 +800,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
+      <c r="B38">
+        <v>114863</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -933,8 +809,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
+      <c r="B39">
+        <v>116335</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -942,8 +818,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
+      <c r="B40">
+        <v>121111</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -951,8 +827,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
+      <c r="B41">
+        <v>121985</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -960,8 +836,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
+      <c r="B42">
+        <v>137738</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -969,11 +845,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>41</v>
+      <c r="B43">
+        <v>145972</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>